--- a/9_1_Kosten/9_Berechnung der Änderungen in Kosten durch Abwärme.xlsx
+++ b/9_1_Kosten/9_Berechnung der Änderungen in Kosten durch Abwärme.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer-my.sharepoint.com/personal/lara_josephine_barnic_iee_fraunhofer_de/Documents/A_Bearbeitung/9_Parameterstudie_REP/9_1_Kosten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="8_{4EB36911-4402-448D-AD50-79DED30F1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{972375D8-9D5F-47DA-BDA8-C96BDEBDFA9E}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{4EB36911-4402-448D-AD50-79DED30F1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A88415E9-B518-4088-AC95-70610A9FA714}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3F92BEA5-F786-41E5-A6D4-74CA96FE7899}"/>
   </bookViews>
   <sheets>
     <sheet name="NT WN_12_5" sheetId="4" r:id="rId1"/>
     <sheet name="NT WN_10" sheetId="3" r:id="rId2"/>
-    <sheet name="NT WN_3,77" sheetId="1" r:id="rId3"/>
+    <sheet name="NT WN_2_5" sheetId="1" r:id="rId3"/>
     <sheet name="K_NW" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -1686,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEEF7BC-99B7-4564-A04A-EEEFE789855D}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="C8" s="10">
         <f>D35</f>
-        <v>98.954638140086502</v>
+        <v>99.797135027843154</v>
       </c>
       <c r="D8" s="3">
         <f>C8/$D$3</f>
-        <v>1522.3790483090231</v>
+        <v>1535.3405388898946</v>
       </c>
       <c r="E8" s="5">
         <f>ROUNDUP(D8/100,0)</f>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22">
-        <v>3.77</v>
+        <v>2.5</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -1911,7 +1911,7 @@
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="11">
         <f>C22/(1-1/C23)</f>
-        <v>4.7361464339714514</v>
+        <v>3.1406806591322622</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -1937,7 +1937,7 @@
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C27" s="9">
         <f>C26-C24</f>
-        <v>187.39385356602855</v>
+        <v>188.98931934086772</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -1955,7 +1955,7 @@
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C29" s="9">
         <f>C27*(1-1/C28)</f>
-        <v>98.954638140086502</v>
+        <v>99.797135027843154</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D33" s="11">
         <f>C24</f>
-        <v>4.7361464339714514</v>
+        <v>3.1406806591322622</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D34" s="9">
         <f>C27</f>
-        <v>187.39385356602855</v>
+        <v>188.98931934086772</v>
       </c>
       <c r="E34" s="9">
         <f>C26</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D35" s="9">
         <f>C29</f>
-        <v>98.954638140086502</v>
+        <v>99.797135027843154</v>
       </c>
       <c r="E35">
         <f>E18</f>
